--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_2_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_2_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,511 +417,698 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>35040</v>
+        <v>31047</v>
       </c>
       <c r="B2">
-        <v>1995</v>
+        <v>1984</v>
       </c>
       <c r="C2">
-        <v>2.234710814035812</v>
+        <v>2.833670241322217</v>
       </c>
       <c r="D2">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="E2">
-        <v>1.985340189802254</v>
+        <v>2.864936526865769</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>35403</v>
+        <v>31412</v>
       </c>
       <c r="B3">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="C3">
-        <v>1.595002781738275</v>
+        <v>2.740628897120945</v>
       </c>
       <c r="D3">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="E3">
-        <v>4.527833749234489</v>
+        <v>4.678955215093872</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>35768</v>
+        <v>31777</v>
       </c>
       <c r="B4">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="C4">
-        <v>2.499560583078497</v>
+        <v>2.269459987912947</v>
       </c>
       <c r="D4">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="E4">
-        <v>3.60450672427064</v>
+        <v>3.802877396620263</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>36132</v>
+        <v>32142</v>
       </c>
       <c r="B5">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="C5">
-        <v>2.812603855740181</v>
+        <v>1.253514454810789</v>
       </c>
       <c r="D5">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="E5">
-        <v>1.930816112722122</v>
+        <v>5.852248234644364</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>36501</v>
+        <v>32508</v>
       </c>
       <c r="B6">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="C6">
-        <v>1.188004848513446</v>
+        <v>3.509161092519553</v>
       </c>
       <c r="D6">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="E6">
-        <v>1.735396560363034</v>
+        <v>5.871435380902312</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>36858</v>
+        <v>32873</v>
       </c>
       <c r="B7">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="C7">
-        <v>3.277038745546235</v>
+        <v>3.898460078540933</v>
       </c>
       <c r="D7">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="E7">
-        <v>3.38079189171907</v>
+        <v>2.713537241942166</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>37222</v>
+        <v>33238</v>
       </c>
       <c r="B8">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="C8">
-        <v>0.7513248531724415</v>
+        <v>5.356103277865332</v>
       </c>
       <c r="D8">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="E8">
-        <v>-0.3560575271134625</v>
+        <v>5.503965428372259</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>37581</v>
+        <v>33603</v>
       </c>
       <c r="B9">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="C9">
-        <v>0.2537741062064169</v>
+        <v>5.955905607167122</v>
       </c>
       <c r="D9">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="E9">
-        <v>0.8558213301539386</v>
+        <v>0.8135327385245139</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>37938</v>
+        <v>33969</v>
       </c>
       <c r="B10">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="C10">
-        <v>-0.1535080579381121</v>
+        <v>1.850401149566561</v>
       </c>
       <c r="D10">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E10">
-        <v>0.1609991203583183</v>
+        <v>-0.3974186896141263</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>38302</v>
+        <v>34334</v>
       </c>
       <c r="B11">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="C11">
-        <v>1.171834509066594</v>
+        <v>-0.9857661435315745</v>
       </c>
       <c r="D11">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="E11">
-        <v>0.9903242616768448</v>
+        <v>2.749399105380035</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>38671</v>
+        <v>34699</v>
       </c>
       <c r="B12">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="C12">
-        <v>1.120380359544382</v>
+        <v>3.052254893522388</v>
       </c>
       <c r="D12">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="E12">
-        <v>1.748547871956596</v>
+        <v>3.682615332489014</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>39035</v>
+        <v>35040</v>
       </c>
       <c r="B13">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="C13">
-        <v>2.691354324129258</v>
+        <v>2.234710814035812</v>
       </c>
       <c r="D13">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E13">
-        <v>3.401732673298752</v>
+        <v>1.985340189802254</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>39400</v>
+        <v>35403</v>
       </c>
       <c r="B14">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="C14">
-        <v>2.652245539637632</v>
+        <v>1.595002781738275</v>
       </c>
       <c r="D14">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="E14">
-        <v>1.952346172688668</v>
+        <v>4.527833749234489</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>39765</v>
+        <v>35768</v>
       </c>
       <c r="B15">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="C15">
-        <v>1.327195601304898</v>
+        <v>2.499560583078497</v>
       </c>
       <c r="D15">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E15">
-        <v>-1.894230483884274</v>
+        <v>3.60450672427064</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>40130</v>
+        <v>36132</v>
       </c>
       <c r="B16">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="C16">
-        <v>-4.803590807538871</v>
+        <v>2.812603855740181</v>
       </c>
       <c r="D16">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="E16">
-        <v>2.398039012205655</v>
+        <v>1.930816112722122</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>40494</v>
+        <v>36501</v>
       </c>
       <c r="B17">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="C17">
-        <v>3.776429555840499</v>
+        <v>1.188004848513446</v>
       </c>
       <c r="D17">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="E17">
-        <v>5.925425027574871</v>
+        <v>1.735396560363034</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>40862</v>
+        <v>36858</v>
       </c>
       <c r="B18">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="C18">
-        <v>3.167941427237042</v>
+        <v>3.277038745546235</v>
       </c>
       <c r="D18">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="E18">
-        <v>1.594106077489155</v>
+        <v>3.38079189171907</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>41228</v>
+        <v>37222</v>
       </c>
       <c r="B19">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="C19">
-        <v>1.072335020576287</v>
+        <v>0.7513248531724415</v>
       </c>
       <c r="D19">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="E19">
-        <v>1.008586723587968</v>
+        <v>-0.3560575271134625</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>41592</v>
+        <v>37581</v>
       </c>
       <c r="B20">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="C20">
-        <v>0.5676944965793185</v>
+        <v>0.2537741062064169</v>
       </c>
       <c r="D20">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="E20">
-        <v>2.053193956993082</v>
+        <v>0.8558213301539386</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>41957</v>
+        <v>37938</v>
       </c>
       <c r="B21">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="C21">
-        <v>1.417171832295883</v>
+        <v>-0.1535080579381121</v>
       </c>
       <c r="D21">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="E21">
-        <v>-0.01881335499507308</v>
+        <v>0.1609991203583183</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>42321</v>
+        <v>38302</v>
       </c>
       <c r="B22">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="C22">
-        <v>1.475252114130599</v>
+        <v>1.171834509066594</v>
       </c>
       <c r="D22">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="E22">
-        <v>1.502189305289692</v>
+        <v>0.9903242616768448</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>42689</v>
+        <v>38671</v>
       </c>
       <c r="B23">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="C23">
-        <v>1.71887541289224</v>
+        <v>1.120380359544382</v>
       </c>
       <c r="D23">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E23">
-        <v>1.182466603344334</v>
+        <v>1.748547871956596</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43053</v>
+        <v>39035</v>
       </c>
       <c r="B24">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="C24">
-        <v>2.581636142651922</v>
+        <v>2.691354324129258</v>
       </c>
       <c r="D24">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="E24">
-        <v>2.971021877918134</v>
+        <v>3.401732673298752</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>39400</v>
       </c>
       <c r="B25">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="C25">
-        <v>1.471137749280693</v>
+        <v>2.652245539637632</v>
       </c>
       <c r="D25">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="E25">
-        <v>0.4244220269781884</v>
+        <v>1.952346172688668</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43783</v>
+        <v>39765</v>
       </c>
       <c r="B26">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="C26">
-        <v>0.508332909595044</v>
+        <v>1.327195601304898</v>
       </c>
       <c r="D26">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="E26">
-        <v>-0.2757402582850954</v>
+        <v>-1.894230483884274</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>44159</v>
+        <v>40130</v>
       </c>
       <c r="B27">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C27">
-        <v>-5.494775307949129</v>
+        <v>-4.803590807538871</v>
       </c>
       <c r="D27">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="E27">
-        <v>-0.7166544947129094</v>
+        <v>2.398039012205655</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>44525</v>
+        <v>40494</v>
       </c>
       <c r="B28">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C28">
-        <v>3.149343082976164</v>
+        <v>3.776429555840499</v>
       </c>
       <c r="D28">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="E28">
-        <v>7.598241630053093</v>
+        <v>5.925425027574871</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>44890</v>
+        <v>40862</v>
       </c>
       <c r="B29">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="C29">
-        <v>1.995866057153428</v>
+        <v>3.167941427237042</v>
       </c>
       <c r="D29">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="E29">
-        <v>1.046377579893853</v>
+        <v>1.594106077489155</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45254</v>
+        <v>41228</v>
       </c>
       <c r="B30">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="C30">
-        <v>-0.1168430792840458</v>
+        <v>1.072335020576287</v>
       </c>
       <c r="D30">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="E30">
-        <v>-0.01476437379130946</v>
+        <v>1.008586723587968</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
+        <v>41592</v>
+      </c>
+      <c r="B31">
+        <v>2013</v>
+      </c>
+      <c r="C31">
+        <v>0.5676944965793185</v>
+      </c>
+      <c r="D31">
+        <v>2014</v>
+      </c>
+      <c r="E31">
+        <v>2.053193956993082</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>41957</v>
+      </c>
+      <c r="B32">
+        <v>2014</v>
+      </c>
+      <c r="C32">
+        <v>1.417171832295883</v>
+      </c>
+      <c r="D32">
+        <v>2015</v>
+      </c>
+      <c r="E32">
+        <v>-0.01881335499507308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>42321</v>
+      </c>
+      <c r="B33">
+        <v>2015</v>
+      </c>
+      <c r="C33">
+        <v>1.475252114130599</v>
+      </c>
+      <c r="D33">
+        <v>2016</v>
+      </c>
+      <c r="E33">
+        <v>1.502189305289692</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>42689</v>
+      </c>
+      <c r="B34">
+        <v>2016</v>
+      </c>
+      <c r="C34">
+        <v>1.71887541289224</v>
+      </c>
+      <c r="D34">
+        <v>2017</v>
+      </c>
+      <c r="E34">
+        <v>1.182466603344334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>43053</v>
+      </c>
+      <c r="B35">
+        <v>2017</v>
+      </c>
+      <c r="C35">
+        <v>2.581636142651922</v>
+      </c>
+      <c r="D35">
+        <v>2018</v>
+      </c>
+      <c r="E35">
+        <v>2.971021877918134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>43418</v>
+      </c>
+      <c r="B36">
+        <v>2018</v>
+      </c>
+      <c r="C36">
+        <v>1.471137749280693</v>
+      </c>
+      <c r="D36">
+        <v>2019</v>
+      </c>
+      <c r="E36">
+        <v>0.4244220269781884</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>43783</v>
+      </c>
+      <c r="B37">
+        <v>2019</v>
+      </c>
+      <c r="C37">
+        <v>0.508332909595044</v>
+      </c>
+      <c r="D37">
+        <v>2020</v>
+      </c>
+      <c r="E37">
+        <v>-0.2757402582850954</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>44159</v>
+      </c>
+      <c r="B38">
+        <v>2020</v>
+      </c>
+      <c r="C38">
+        <v>-5.494775307949129</v>
+      </c>
+      <c r="D38">
+        <v>2021</v>
+      </c>
+      <c r="E38">
+        <v>-0.7166544947129094</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>44525</v>
+      </c>
+      <c r="B39">
+        <v>2021</v>
+      </c>
+      <c r="C39">
+        <v>3.149343082976164</v>
+      </c>
+      <c r="D39">
+        <v>2022</v>
+      </c>
+      <c r="E39">
+        <v>7.598241630053093</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>44890</v>
+      </c>
+      <c r="B40">
+        <v>2022</v>
+      </c>
+      <c r="C40">
+        <v>1.995866057153428</v>
+      </c>
+      <c r="D40">
+        <v>2023</v>
+      </c>
+      <c r="E40">
+        <v>1.046377579893853</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B41">
+        <v>2023</v>
+      </c>
+      <c r="C41">
+        <v>-0.1168430792840458</v>
+      </c>
+      <c r="D41">
+        <v>2024</v>
+      </c>
+      <c r="E41">
+        <v>-0.01476437379130946</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
         <v>45618</v>
       </c>
-      <c r="B31">
+      <c r="B42">
         <v>2024</v>
       </c>
-      <c r="C31">
+      <c r="C42">
         <v>-0.1775688094211469</v>
       </c>
-      <c r="D31">
+      <c r="D42">
         <v>2025</v>
       </c>
-      <c r="E31">
+      <c r="E42">
         <v>-0.3126907272057444</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_2_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_2_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,698 +417,630 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>31047</v>
+        <v>32508</v>
       </c>
       <c r="B2">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="C2">
-        <v>2.833670241322217</v>
+        <v>3.509161092519553</v>
       </c>
       <c r="D2">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="E2">
-        <v>2.864936526865769</v>
+        <v>5.871435380902312</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>31412</v>
+        <v>32873</v>
       </c>
       <c r="B3">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="C3">
-        <v>2.740628897120945</v>
+        <v>3.898460078540933</v>
       </c>
       <c r="D3">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="E3">
-        <v>4.678955215093872</v>
+        <v>2.713537241942166</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>31777</v>
+        <v>33238</v>
       </c>
       <c r="B4">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="C4">
-        <v>2.269459987912947</v>
+        <v>5.356103277865332</v>
       </c>
       <c r="D4">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E4">
-        <v>3.802877396620263</v>
+        <v>5.503965428372259</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>32142</v>
+        <v>33603</v>
       </c>
       <c r="B5">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="C5">
-        <v>1.253514454810789</v>
+        <v>5.955905607167122</v>
       </c>
       <c r="D5">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E5">
-        <v>5.852248234644364</v>
+        <v>0.8135327385245139</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>32508</v>
+        <v>33969</v>
       </c>
       <c r="B6">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C6">
-        <v>3.509161092519553</v>
+        <v>1.850401149566561</v>
       </c>
       <c r="D6">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E6">
-        <v>5.871435380902312</v>
+        <v>-0.3974186896141263</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>32873</v>
+        <v>34334</v>
       </c>
       <c r="B7">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="C7">
-        <v>3.898460078540933</v>
+        <v>-0.9857661435315745</v>
       </c>
       <c r="D7">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E7">
-        <v>2.713537241942166</v>
+        <v>2.749399105380035</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>33238</v>
+        <v>34699</v>
       </c>
       <c r="B8">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="C8">
-        <v>5.356103277865332</v>
+        <v>3.052254893522388</v>
       </c>
       <c r="D8">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="E8">
-        <v>5.503965428372259</v>
+        <v>3.682615332489014</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>33603</v>
+        <v>35040</v>
       </c>
       <c r="B9">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C9">
-        <v>5.955905607167122</v>
+        <v>2.234710814035812</v>
       </c>
       <c r="D9">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E9">
-        <v>0.8135327385245139</v>
+        <v>1.985340189802254</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>33969</v>
+        <v>35403</v>
       </c>
       <c r="B10">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C10">
-        <v>1.850401149566561</v>
+        <v>1.595002781738275</v>
       </c>
       <c r="D10">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E10">
-        <v>-0.3974186896141263</v>
+        <v>4.527833749234489</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>34334</v>
+        <v>35768</v>
       </c>
       <c r="B11">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C11">
-        <v>-0.9857661435315745</v>
+        <v>2.499560583078497</v>
       </c>
       <c r="D11">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E11">
-        <v>2.749399105380035</v>
+        <v>3.60450672427064</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>34699</v>
+        <v>36132</v>
       </c>
       <c r="B12">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C12">
-        <v>3.052254893522388</v>
+        <v>2.812603855740181</v>
       </c>
       <c r="D12">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E12">
-        <v>3.682615332489014</v>
+        <v>1.930816112722122</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>35040</v>
+        <v>36501</v>
       </c>
       <c r="B13">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C13">
-        <v>2.234710814035812</v>
+        <v>1.188004848513446</v>
       </c>
       <c r="D13">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E13">
-        <v>1.985340189802254</v>
+        <v>1.735396560363034</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>35403</v>
+        <v>36858</v>
       </c>
       <c r="B14">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C14">
-        <v>1.595002781738275</v>
+        <v>3.277038745546235</v>
       </c>
       <c r="D14">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E14">
-        <v>4.527833749234489</v>
+        <v>3.38079189171907</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>35768</v>
+        <v>37222</v>
       </c>
       <c r="B15">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C15">
-        <v>2.499560583078497</v>
+        <v>0.7513248531724415</v>
       </c>
       <c r="D15">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E15">
-        <v>3.60450672427064</v>
+        <v>-0.3560575271134625</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>36132</v>
+        <v>37581</v>
       </c>
       <c r="B16">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C16">
-        <v>2.812603855740181</v>
+        <v>0.2537741062064169</v>
       </c>
       <c r="D16">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E16">
-        <v>1.930816112722122</v>
+        <v>0.8558213301539386</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>36501</v>
+        <v>37938</v>
       </c>
       <c r="B17">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C17">
-        <v>1.188004848513446</v>
+        <v>-0.1535080579381121</v>
       </c>
       <c r="D17">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E17">
-        <v>1.735396560363034</v>
+        <v>0.1609991203583183</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>36858</v>
+        <v>38302</v>
       </c>
       <c r="B18">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C18">
-        <v>3.277038745546235</v>
+        <v>1.171834509066594</v>
       </c>
       <c r="D18">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E18">
-        <v>3.38079189171907</v>
+        <v>0.9903242616768448</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>37222</v>
+        <v>38671</v>
       </c>
       <c r="B19">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C19">
-        <v>0.7513248531724415</v>
+        <v>1.120380359544382</v>
       </c>
       <c r="D19">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E19">
-        <v>-0.3560575271134625</v>
+        <v>1.748547871956596</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>37581</v>
+        <v>39035</v>
       </c>
       <c r="B20">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="C20">
-        <v>0.2537741062064169</v>
+        <v>2.691354324129258</v>
       </c>
       <c r="D20">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E20">
-        <v>0.8558213301539386</v>
+        <v>3.401732673298752</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>37938</v>
+        <v>39400</v>
       </c>
       <c r="B21">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="C21">
-        <v>-0.1535080579381121</v>
+        <v>2.652245539637632</v>
       </c>
       <c r="D21">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E21">
-        <v>0.1609991203583183</v>
+        <v>1.952346172688668</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>38302</v>
+        <v>39765</v>
       </c>
       <c r="B22">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C22">
-        <v>1.171834509066594</v>
+        <v>1.327195601304898</v>
       </c>
       <c r="D22">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E22">
-        <v>0.9903242616768448</v>
+        <v>-1.894230483884274</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>38671</v>
+        <v>40130</v>
       </c>
       <c r="B23">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C23">
-        <v>1.120380359544382</v>
+        <v>-4.803590807538871</v>
       </c>
       <c r="D23">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E23">
-        <v>1.748547871956596</v>
+        <v>2.398039012205655</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>39035</v>
+        <v>40494</v>
       </c>
       <c r="B24">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C24">
-        <v>2.691354324129258</v>
+        <v>3.776429555840499</v>
       </c>
       <c r="D24">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E24">
-        <v>3.401732673298752</v>
+        <v>5.925425027574871</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>39400</v>
+        <v>40862</v>
       </c>
       <c r="B25">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C25">
-        <v>2.652245539637632</v>
+        <v>3.167941427237042</v>
       </c>
       <c r="D25">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E25">
-        <v>1.952346172688668</v>
+        <v>1.594106077489155</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>39765</v>
+        <v>41228</v>
       </c>
       <c r="B26">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C26">
-        <v>1.327195601304898</v>
+        <v>1.072335020576287</v>
       </c>
       <c r="D26">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E26">
-        <v>-1.894230483884274</v>
+        <v>1.008586723587968</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>40130</v>
+        <v>41592</v>
       </c>
       <c r="B27">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C27">
-        <v>-4.803590807538871</v>
+        <v>0.5676944965793185</v>
       </c>
       <c r="D27">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E27">
-        <v>2.398039012205655</v>
+        <v>2.053193956993082</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>40494</v>
+        <v>41957</v>
       </c>
       <c r="B28">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C28">
-        <v>3.776429555840499</v>
+        <v>1.417171832295883</v>
       </c>
       <c r="D28">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E28">
-        <v>5.925425027574871</v>
+        <v>-0.01881335499507308</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>40862</v>
+        <v>42321</v>
       </c>
       <c r="B29">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C29">
-        <v>3.167941427237042</v>
+        <v>1.475252114130599</v>
       </c>
       <c r="D29">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E29">
-        <v>1.594106077489155</v>
+        <v>1.502189305289692</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>41228</v>
+        <v>42689</v>
       </c>
       <c r="B30">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C30">
-        <v>1.072335020576287</v>
+        <v>1.71887541289224</v>
       </c>
       <c r="D30">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E30">
-        <v>1.008586723587968</v>
+        <v>1.182466603344334</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>41592</v>
+        <v>43053</v>
       </c>
       <c r="B31">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C31">
-        <v>0.5676944965793185</v>
+        <v>2.581636142651922</v>
       </c>
       <c r="D31">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E31">
-        <v>2.053193956993082</v>
+        <v>2.971021877918134</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>41957</v>
+        <v>43418</v>
       </c>
       <c r="B32">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C32">
-        <v>1.417171832295883</v>
+        <v>1.471137749280693</v>
       </c>
       <c r="D32">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E32">
-        <v>-0.01881335499507308</v>
+        <v>0.4244220269781884</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>42321</v>
+        <v>43783</v>
       </c>
       <c r="B33">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C33">
-        <v>1.475252114130599</v>
+        <v>0.508332909595044</v>
       </c>
       <c r="D33">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E33">
-        <v>1.502189305289692</v>
+        <v>-0.2757402582850954</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>42689</v>
+        <v>44159</v>
       </c>
       <c r="B34">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C34">
-        <v>1.71887541289224</v>
+        <v>-5.494775307949129</v>
       </c>
       <c r="D34">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E34">
-        <v>1.182466603344334</v>
+        <v>-0.7166544947129094</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>43053</v>
+        <v>44525</v>
       </c>
       <c r="B35">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.581636142651922</v>
+        <v>3.149343082976164</v>
       </c>
       <c r="D35">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E35">
-        <v>2.971021877918134</v>
+        <v>7.598241630053093</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>43418</v>
+        <v>44890</v>
       </c>
       <c r="B36">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C36">
-        <v>1.471137749280693</v>
+        <v>1.995866057153428</v>
       </c>
       <c r="D36">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E36">
-        <v>0.4244220269781884</v>
+        <v>1.046377579893853</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>43783</v>
+        <v>45254</v>
       </c>
       <c r="B37">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C37">
-        <v>0.508332909595044</v>
+        <v>-0.1168430792840458</v>
       </c>
       <c r="D37">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E37">
-        <v>-0.2757402582850954</v>
+        <v>-0.01476437379130946</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44159</v>
+        <v>45618</v>
       </c>
       <c r="B38">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C38">
-        <v>-5.494775307949129</v>
+        <v>-0.1775688094211469</v>
       </c>
       <c r="D38">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E38">
-        <v>-0.7166544947129094</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2">
-        <v>44525</v>
-      </c>
-      <c r="B39">
-        <v>2021</v>
-      </c>
-      <c r="C39">
-        <v>3.149343082976164</v>
-      </c>
-      <c r="D39">
-        <v>2022</v>
-      </c>
-      <c r="E39">
-        <v>7.598241630053093</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2">
-        <v>44890</v>
-      </c>
-      <c r="B40">
-        <v>2022</v>
-      </c>
-      <c r="C40">
-        <v>1.995866057153428</v>
-      </c>
-      <c r="D40">
-        <v>2023</v>
-      </c>
-      <c r="E40">
-        <v>1.046377579893853</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2">
-        <v>45254</v>
-      </c>
-      <c r="B41">
-        <v>2023</v>
-      </c>
-      <c r="C41">
-        <v>-0.1168430792840458</v>
-      </c>
-      <c r="D41">
-        <v>2024</v>
-      </c>
-      <c r="E41">
-        <v>-0.01476437379130946</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2">
-        <v>45618</v>
-      </c>
-      <c r="B42">
-        <v>2024</v>
-      </c>
-      <c r="C42">
-        <v>-0.1775688094211469</v>
-      </c>
-      <c r="D42">
-        <v>2025</v>
-      </c>
-      <c r="E42">
         <v>-0.3126907272057444</v>
       </c>
     </row>
